--- a/sample-file/product.xlsx
+++ b/sample-file/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qcc\workspace\know-your-quotation\sample-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{584B63F9-3CD5-43FD-9E92-E2867165440B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B924696-3A26-4909-93AF-4B934A38A5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,6 +176,34 @@
   </si>
   <si>
     <t>型号描述</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品重量（kg）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产品尺寸（m³）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.15*0.12*0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.5*0.7*0.02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.6*0.3*0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2.4*0.3*0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3*0.3*0.05</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -232,16 +260,13 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -275,9 +300,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1187997</xdr:colOff>
+      <xdr:colOff>1201332</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>712470</xdr:rowOff>
+      <xdr:rowOff>702945</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -321,7 +346,7 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>1521462</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>87630</xdr:rowOff>
+      <xdr:rowOff>91440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -367,9 +392,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>1398270</xdr:colOff>
+      <xdr:colOff>1388745</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>1005840</xdr:rowOff>
+      <xdr:rowOff>1009650</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -667,28 +692,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:B9"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
     <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="1" customWidth="1"/>
-    <col min="6" max="6" width="29.21875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="35.109375" style="1" customWidth="1"/>
     <col min="8" max="8" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.5546875" style="1" customWidth="1"/>
-    <col min="11" max="16384" width="8.88671875" style="1"/>
+    <col min="9" max="9" width="37.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="16.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
+    <col min="13" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
@@ -711,16 +738,22 @@
         <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="J1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="2" t="s">
         <v>11</v>
@@ -740,17 +773,23 @@
       <c r="G2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I2" s="1">
+      <c r="K2" s="1">
         <v>2</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="L2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -766,17 +805,23 @@
       <c r="G3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="1">
+        <v>5</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="1">
+      <c r="K3" s="1">
         <v>2</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="L3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2"/>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
@@ -792,17 +837,23 @@
       <c r="G4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I4" s="1">
+      <c r="K4" s="1">
         <v>2</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2"/>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
@@ -818,17 +869,23 @@
       <c r="G5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="1">
+        <v>10</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="I5" s="1">
+      <c r="K5" s="1">
         <v>2.5</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="L5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="1" t="s">
         <v>23</v>
       </c>
@@ -847,19 +904,25 @@
       <c r="G6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="1">
+        <v>1</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="J6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I6" s="1">
+      <c r="K6" s="1">
         <v>73</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="L6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>29</v>
       </c>
       <c r="C7" s="3" t="s">
@@ -877,20 +940,26 @@
       <c r="G7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="1">
+        <v>1.5</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="J7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I7" s="1">
+      <c r="K7" s="1">
         <v>80</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="L7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
       <c r="D8" s="1" t="s">
         <v>13</v>
       </c>
@@ -903,20 +972,26 @@
       <c r="G8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="1">
+        <v>2.5</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="1">
+      <c r="K8" s="1">
         <v>120</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="L8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3"/>
       <c r="D9" s="1" t="s">
         <v>13</v>
       </c>
@@ -929,13 +1004,19 @@
       <c r="G9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="1">
+        <v>3.5</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I9" s="1">
+      <c r="K9" s="1">
         <v>160</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="L9" s="1" t="s">
         <v>7</v>
       </c>
     </row>

--- a/sample-file/product.xlsx
+++ b/sample-file/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qcc\workspace\know-your-quotation\sample-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B924696-3A26-4909-93AF-4B934A38A5CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9B9835-3607-4D1B-8D18-1987B9D7C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="46">
   <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -204,6 +204,10 @@
   </si>
   <si>
     <t>3*0.3*0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -293,13 +297,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>367665</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>68580</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1201332</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>702945</xdr:rowOff>
@@ -337,13 +341,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>180975</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1521462</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>91440</xdr:rowOff>
@@ -385,13 +389,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>114300</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>390525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>0</xdr:col>
+      <xdr:col>1</xdr:col>
       <xdr:colOff>1388745</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>1009650</xdr:rowOff>
@@ -692,342 +696,369 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L9"/>
+  <dimension ref="A1:M9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.88671875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="14.33203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="35.109375" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.88671875" style="1" customWidth="1"/>
-    <col min="9" max="9" width="37.88671875" style="1" customWidth="1"/>
-    <col min="10" max="10" width="16.88671875" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.88671875" style="1" customWidth="1"/>
-    <col min="12" max="12" width="17.5546875" style="1" customWidth="1"/>
-    <col min="13" max="16384" width="8.88671875" style="1"/>
+    <col min="1" max="2" width="24.6640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.88671875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14.33203125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="35.109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="16.88671875" style="1" customWidth="1"/>
+    <col min="10" max="10" width="37.88671875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="16.88671875" style="1" customWidth="1"/>
+    <col min="12" max="12" width="17.88671875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="17.5546875" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="8.88671875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:13" ht="62.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="F2" s="1">
+      <c r="G2" s="1">
         <v>2.5</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <v>2.5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="1">
+      <c r="L2" s="1">
         <v>2</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="M2" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2"/>
+    <row r="3" spans="1:13" ht="66.599999999999994" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="1">
+      <c r="G3" s="1">
         <v>5</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="1">
+      <c r="I3" s="1">
         <v>5</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="1" t="s">
+      <c r="K3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K3" s="1">
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="M3" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="2"/>
+    <row r="4" spans="1:13" ht="43.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2"/>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2"/>
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="F4" s="1">
+      <c r="G4" s="1">
         <v>7.5</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <v>7.5</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J4" s="1" t="s">
+      <c r="K4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K4" s="1">
+      <c r="L4" s="1">
         <v>2</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="M4" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:13" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2"/>
+      <c r="E5" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="F5" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="1">
+      <c r="G5" s="1">
         <v>10</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <v>10</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="J5" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="K5" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="1">
+      <c r="L5" s="1">
         <v>2.5</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="M5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="1:13" ht="73.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="F6" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="F6" s="1" t="s">
+      <c r="G6" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="H6" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <v>1</v>
       </c>
-      <c r="I6" s="1" t="s">
+      <c r="J6" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="1" t="s">
+      <c r="K6" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K6" s="1">
+      <c r="L6" s="1">
         <v>73</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="M6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="3" t="s">
+    <row r="7" spans="1:13" ht="52.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="D7" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="E7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="F7" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="H7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <v>1.5</v>
       </c>
-      <c r="I7" s="1" t="s">
+      <c r="J7" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="J7" s="1" t="s">
+      <c r="K7" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K7" s="1">
+      <c r="L7" s="1">
         <v>80</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="M7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="3"/>
+    <row r="8" spans="1:13" ht="86.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="3"/>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="3"/>
+      <c r="E8" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="F8" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="H8" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <v>2.5</v>
       </c>
-      <c r="I8" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="J8" s="1" t="s">
+      <c r="K8" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K8" s="1">
+      <c r="L8" s="1">
         <v>120</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="M8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2"/>
-      <c r="B9" s="3"/>
+    <row r="9" spans="1:13" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="3"/>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="3"/>
+      <c r="E9" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="F9" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="F9" s="1" t="s">
+      <c r="G9" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="H9" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <v>3.5</v>
       </c>
-      <c r="I9" s="1" t="s">
+      <c r="J9" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="1" t="s">
+      <c r="K9" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="K9" s="1">
+      <c r="L9" s="1">
         <v>160</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="M9" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
-    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="D2:D5"/>
+    <mergeCell ref="B7:B9"/>
+    <mergeCell ref="D7:D9"/>
     <mergeCell ref="C2:C5"/>
-    <mergeCell ref="A7:A9"/>
     <mergeCell ref="C7:C9"/>
-    <mergeCell ref="B2:B5"/>
-    <mergeCell ref="B7:B9"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/sample-file/product.xlsx
+++ b/sample-file/product.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\qcc\workspace\know-your-quotation\sample-file\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B9B9835-3607-4D1B-8D18-1987B9D7C64A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C6787FFD-A283-4344-BA6C-A24CE3747E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="45" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-15" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -71,10 +71,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OK1013</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>ACT1013-2.5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -119,10 +115,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>OK9100B</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RBK9100B</t>
   </si>
   <si>
@@ -139,10 +131,6 @@
   </si>
   <si>
     <t>RBK1224-244-O</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>OK1224</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -208,6 +196,18 @@
   </si>
   <si>
     <t>序号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST1013</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST9100</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TEST1224</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -264,7 +264,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -274,6 +274,9 @@
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -698,8 +701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -721,7 +724,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>5</v>
@@ -742,13 +745,13 @@
         <v>10</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>3</v>
@@ -766,28 +769,28 @@
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>11</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="G2" s="1">
         <v>2.5</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="I2" s="1">
         <v>2.5</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K2" s="1" t="s">
         <v>8</v>
@@ -807,22 +810,22 @@
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="G3" s="1">
         <v>5</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I3" s="1">
         <v>5</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>8</v>
@@ -842,22 +845,22 @@
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="G4" s="1">
         <v>7.5</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I4" s="1">
         <v>7.5</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K4" s="1" t="s">
         <v>8</v>
@@ -877,22 +880,22 @@
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G5" s="1">
         <v>10</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I5" s="1">
         <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="K5" s="1" t="s">
         <v>8</v>
@@ -909,31 +912,31 @@
         <v>5</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H6" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>25</v>
       </c>
       <c r="I6" s="1">
         <v>1</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="K6" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L6" s="1">
         <v>73</v>
@@ -948,31 +951,31 @@
       </c>
       <c r="B7" s="2"/>
       <c r="C7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>29</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>32</v>
       </c>
       <c r="I7" s="1">
         <v>1.5</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="K7" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L7" s="1">
         <v>80</v>
@@ -989,25 +992,25 @@
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="I8" s="1">
         <v>2.5</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="K8" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L8" s="1">
         <v>120</v>
@@ -1024,25 +1027,25 @@
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="I9" s="1">
         <v>3.5</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="K9" s="1" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="L9" s="1">
         <v>160</v>
